--- a/documentation-generator/vocab_csv/legal_basis.xlsx
+++ b/documentation-generator/vocab_csv/legal_basis.xlsx
@@ -833,7 +833,7 @@
     <t>Specifies the expiry time or duration for consent</t>
   </si>
   <si>
-    <t>dpv:expiry</t>
+    <t>dpv:hasExpiry</t>
   </si>
   <si>
     <t>hasExpiryCondition</t>
